--- a/DataSource.xlsx
+++ b/DataSource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>数据源名称</t>
   </si>
@@ -107,6 +107,21 @@
   </si>
   <si>
     <t>777</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>PQSQL</t>
   </si>
 </sst>
 </file>
@@ -135,9 +150,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +180,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -174,22 +217,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,31 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,15 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,31 +303,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,25 +429,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,121 +471,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +494,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,35 +517,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +560,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -581,16 +596,16 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +614,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,28 +1254,22 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
